--- a/Analyze_file.xlsx
+++ b/Analyze_file.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="دانشگاه" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="پس انداز" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="سلامت" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -364,17 +365,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
@@ -426,6 +427,213 @@
         <is>
           <t>***</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Block</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Expend</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>remaining</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>تفریح</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>حمل و نقل</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>اینترنت</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>پوشاک</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>کمکی</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>اموزشی</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>دانشگاه</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>پس انداز</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>600000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>600000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>سلامت</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
@@ -450,17 +658,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
@@ -536,17 +744,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
@@ -622,17 +830,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
@@ -708,17 +916,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
@@ -794,17 +1002,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
@@ -880,17 +1088,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
@@ -981,17 +1189,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>
@@ -1097,17 +1305,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>val</t>
+          <t>Val</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>Data</t>
         </is>
       </c>
     </row>

--- a/Analyze_file.xlsx
+++ b/Analyze_file.xlsx
@@ -354,7 +354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,50 +380,80 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>خوراکی</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1400/01/01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Allocation</t>
+          <t>خوراکی</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>1400/01/10</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Expend</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Remaining</t>
+          <t>Allocation</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>200000</v>
       </c>
       <c r="C5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Expend</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>160000</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>***</t>
         </is>
@@ -480,10 +510,10 @@
         <v>200000</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D2" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="3">
@@ -630,10 +660,10 @@
         <v>2500000</v>
       </c>
       <c r="C12" t="n">
-        <v>2000000</v>
+        <v>2040000</v>
       </c>
       <c r="D12" t="n">
-        <v>500000</v>
+        <v>460000</v>
       </c>
     </row>
   </sheetData>

--- a/Analyze_file.xlsx
+++ b/Analyze_file.xlsx
@@ -386,11 +386,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1400/01/01</t>
+          <t>1400/01/10</t>
         </is>
       </c>
     </row>
@@ -401,11 +401,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1400/01/10</t>
+          <t>1400/01/01</t>
         </is>
       </c>
     </row>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1399/12/28</t>
+          <t>1399/12/29</t>
         </is>
       </c>
     </row>
@@ -1255,11 +1255,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1399/12/29</t>
+          <t>1399/12/28</t>
         </is>
       </c>
     </row>
